--- a/VersionRecords/Version 5.0.0.1 20160907/版本Bug和特性计划及评审表v5.0.0.1.xlsx
+++ b/VersionRecords/Version 5.0.0.1 20160907/版本Bug和特性计划及评审表v5.0.0.1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>No</t>
   </si>
@@ -139,6 +139,43 @@
   </si>
   <si>
     <t>邵明基</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉蘑菇宝逾期催款短信发送异常修复</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉、王云飞</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -334,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,6 +478,30 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,27 +1023,55 @@
       <c r="S2" s="20"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="22"/>
+    <row r="3" spans="1:20" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="38">
+        <v>42614</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="38">
+        <v>42614</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="38">
+        <v>42620</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
     </row>
     <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>

--- a/VersionRecords/Version 5.0.0.1 20160907/版本Bug和特性计划及评审表v5.0.0.1.xlsx
+++ b/VersionRecords/Version 5.0.0.1 20160907/版本Bug和特性计划及评审表v5.0.0.1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -176,6 +176,77 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>app修改添加账单参数传递</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙苏文</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chaochen'shu</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>app添加自定义账单新数据权限规则修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>app从房态图进去后页签不能点击</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东app未支付账单，在账单详情页不修改的情况下，点击保存修改，也会给租客发送短信</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>王向阳</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,6 +573,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -886,7 +960,7 @@
   <dimension ref="A1:T174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,93 +1147,205 @@
       <c r="S3" s="41"/>
       <c r="T3" s="42"/>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="22"/>
-    </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="22"/>
-    </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="22"/>
+    <row r="4" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="38">
+        <v>42620</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="38">
+        <v>42620</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="38">
+        <v>42620</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="42"/>
+    </row>
+    <row r="5" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="38">
+        <v>42620</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="38">
+        <v>42620</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="38">
+        <v>42620</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+    </row>
+    <row r="6" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="38">
+        <v>42620</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="38">
+        <v>42620</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="38">
+        <v>42620</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="42"/>
+    </row>
+    <row r="7" spans="1:20" s="43" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="38">
+        <v>42620</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="38">
+        <v>42620</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="38">
+        <v>42620</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="42"/>
     </row>
     <row r="8" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="29"/>
